--- a/KUPX6BA1.xlsx
+++ b/KUPX6BA1.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t>Anglais (KUPX6BA1)</t>
@@ -35,7 +35,7 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>15:45</t>
@@ -101,7 +101,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -140,7 +140,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>1</v>
@@ -179,7 +179,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44949.0</v>
+        <v>46045.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>1</v>
@@ -218,7 +218,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>1</v>
@@ -257,7 +257,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>44963.0</v>
+        <v>46059.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>1</v>
@@ -296,7 +296,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>7</v>
@@ -335,7 +335,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>44977.0</v>
+        <v>46073.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>1</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>44984.0</v>
+        <v>46080.0</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>1</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>1</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>1</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>1</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>1</v>
